--- a/Test_Sheet.xlsx
+++ b/Test_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER Data\Desktop\Django\CHECKER\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709570E-E7FF-4FAB-84C1-29FFC904073B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F05B7CC-3640-47FD-B04B-7EB1737AA8C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Number </t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -1493,6 +1490,9 @@
   </si>
   <si>
     <t>7946134679</t>
+  </si>
+  <si>
+    <t>Mobile_Number</t>
   </si>
 </sst>
 </file>
@@ -2006,13 +2006,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="27.6">
@@ -2021,25 +2021,25 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
@@ -2051,22 +2051,22 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I3" s="29">
         <v>5664346791</v>
@@ -2082,25 +2082,25 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -2113,22 +2113,22 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="29">
         <v>1643795826</v>
@@ -2143,22 +2143,22 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I6" s="29">
         <v>1634976532</v>
@@ -2173,22 +2173,22 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I7" s="29">
         <v>1643798526</v>
@@ -2203,22 +2203,22 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="H8" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I8" s="29">
         <v>4632649674</v>
@@ -2233,22 +2233,22 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H9" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I9" s="29">
         <v>1346795346</v>
@@ -2263,22 +2263,22 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I10" s="29">
         <v>2346791742</v>
@@ -2293,19 +2293,19 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="29"/>
@@ -2318,19 +2318,19 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="29"/>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2367,19 +2367,19 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="29"/>
@@ -2393,19 +2393,19 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="29"/>
@@ -2419,19 +2419,19 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="29"/>
@@ -2445,19 +2445,19 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="29"/>
@@ -2471,19 +2471,19 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="29"/>
@@ -2497,19 +2497,19 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="29"/>
@@ -2523,19 +2523,19 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="29"/>
@@ -2549,19 +2549,19 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="29"/>
@@ -2575,19 +2575,19 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="29"/>
@@ -2601,19 +2601,19 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="29"/>
@@ -2627,19 +2627,19 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="29"/>
@@ -2652,19 +2652,19 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="29"/>
@@ -2678,19 +2678,19 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="29"/>
@@ -2704,19 +2704,19 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="29"/>
@@ -2730,19 +2730,19 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="29"/>
@@ -2756,19 +2756,19 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="29"/>
@@ -2782,19 +2782,19 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="30"/>
@@ -2808,19 +2808,19 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="29"/>
@@ -2834,19 +2834,19 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="29"/>
@@ -2860,19 +2860,19 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="29"/>
@@ -2887,19 +2887,19 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="29"/>
@@ -2914,17 +2914,17 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>168</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="29"/>
@@ -2939,19 +2939,19 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="29"/>
@@ -2966,19 +2966,19 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="G37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="29"/>
@@ -2993,19 +2993,19 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="G38" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="29"/>
@@ -3020,19 +3020,19 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="29"/>
@@ -3047,19 +3047,19 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="29"/>
@@ -3074,19 +3074,19 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="G41" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="29"/>
@@ -3100,19 +3100,19 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="G42" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="29"/>
@@ -3126,19 +3126,19 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="G43" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="29"/>
@@ -3152,19 +3152,19 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="G44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="29"/>
@@ -3178,19 +3178,19 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="29"/>
@@ -3204,19 +3204,19 @@
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="29"/>
@@ -3230,19 +3230,19 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="29"/>
@@ -3256,19 +3256,19 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="G48" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="29"/>
@@ -3282,16 +3282,16 @@
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3306,19 +3306,19 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="29"/>
@@ -3332,19 +3332,19 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="29"/>
@@ -3358,13 +3358,13 @@
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -3379,19 +3379,19 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="29"/>
@@ -3406,16 +3406,16 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3430,13 +3430,13 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
@@ -3452,17 +3452,17 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E56" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="29"/>
@@ -3476,19 +3476,19 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="G57" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="29"/>
@@ -3502,19 +3502,19 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G58" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="29"/>
@@ -3528,13 +3528,13 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
@@ -3550,19 +3550,19 @@
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="29"/>
@@ -3576,19 +3576,19 @@
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="29"/>
@@ -3602,16 +3602,16 @@
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -3626,16 +3626,16 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -3650,16 +3650,16 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -3674,16 +3674,16 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="E65" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3698,16 +3698,16 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3722,16 +3722,16 @@
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>285</v>
-      </c>
       <c r="E67" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3746,19 +3746,19 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="29"/>
@@ -3772,19 +3772,19 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="G69" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="31"/>
@@ -3798,19 +3798,19 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="G70" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="29"/>
@@ -3824,19 +3824,19 @@
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="29"/>
@@ -3850,19 +3850,19 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="E72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="G72" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="H72" s="5"/>
       <c r="I72" s="29"/>
@@ -3876,19 +3876,19 @@
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="29"/>
@@ -3902,19 +3902,19 @@
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>315</v>
-      </c>
       <c r="G74" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="29"/>
@@ -3928,19 +3928,19 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="29"/>
@@ -3954,14 +3954,14 @@
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="5"/>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="H77" s="17"/>
       <c r="I77" s="29"/>
@@ -4000,19 +4000,19 @@
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="17" t="s">
+      <c r="G78" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>329</v>
       </c>
       <c r="H78" s="17"/>
       <c r="I78" s="29"/>
@@ -4026,19 +4026,19 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="29"/>
@@ -4052,19 +4052,19 @@
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="G80" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="29"/>
@@ -4078,16 +4078,16 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -4102,19 +4102,19 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="E82" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="G82" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="29"/>
@@ -4128,19 +4128,19 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="G83" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="29"/>
@@ -4154,19 +4154,19 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="29"/>
@@ -4180,19 +4180,19 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="G85" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="29"/>
@@ -4206,16 +4206,16 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -4230,19 +4230,19 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="G87" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="29"/>
@@ -4256,19 +4256,19 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="G88" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>368</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="29"/>
@@ -4282,19 +4282,19 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="E89" s="20" t="s">
+      <c r="F89" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="G89" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="29"/>
@@ -4308,19 +4308,19 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="G90" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>377</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="29"/>
@@ -4334,16 +4334,16 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4358,19 +4358,19 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F92" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="29"/>
@@ -4384,19 +4384,19 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="E93" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="22" t="s">
+      <c r="G93" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="29"/>
@@ -4410,19 +4410,19 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="29"/>
@@ -4436,19 +4436,19 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>398</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="29"/>
@@ -4462,19 +4462,19 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>402</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="32"/>
@@ -4488,19 +4488,19 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>404</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>405</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="29"/>
@@ -4514,19 +4514,19 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="F98" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="G98" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98" s="5"/>
       <c r="J98" s="5"/>
@@ -4539,19 +4539,19 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="34"/>
@@ -4565,19 +4565,19 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F100" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="H100" s="5"/>
       <c r="J100" s="5"/>
@@ -4590,19 +4590,19 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>420</v>
-      </c>
       <c r="G101" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H101" s="5"/>
       <c r="K101" s="5"/>
@@ -4614,19 +4614,19 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>423</v>
-      </c>
       <c r="G102" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="35"/>
@@ -4639,19 +4639,19 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="36"/>
@@ -4665,19 +4665,19 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="37"/>

--- a/Test_Sheet.xlsx
+++ b/Test_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER Data\Desktop\Django\CHECKER\check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F05B7CC-3640-47FD-B04B-7EB1737AA8C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF67070-2ABF-4867-A435-86EF5A82323A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="439">
   <si>
     <t>Sl No</t>
   </si>
@@ -1494,12 +1494,18 @@
   <si>
     <t>Mobile_Number</t>
   </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>b@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1606,6 +1612,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1657,10 +1670,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1744,8 +1758,12 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1965,7 +1983,7 @@
   <dimension ref="A1:M996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2041,7 +2059,9 @@
       <c r="I2" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="39" t="s">
+        <v>437</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="M2" s="8"/>
     </row>
@@ -2071,7 +2091,9 @@
       <c r="I3" s="29">
         <v>5664346791</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="39" t="s">
+        <v>438</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="M3" s="8"/>
     </row>
@@ -7484,8 +7506,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{0C9BACE0-49C8-46FC-AEAB-72AAB37A79EB}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{E7E65A7B-4EFF-4C13-9FDF-90950E8D02A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>